--- a/Data/F022.PRD3.FLU.AN03.Z.USD.D.xlsx
+++ b/Data/F022.PRD3.FLU.AN03.Z.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">

--- a/Data/F022.PRD3.FLU.AN03.Z.USD.D.xlsx
+++ b/Data/F022.PRD3.FLU.AN03.Z.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
